--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Standish/Arthur_Standish.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Standish/Arthur_Standish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Standish (1552-1613) est un écrivain anglais sur l'agriculture.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans le Cambridgeshire ou le sud du Lincolnshire. Il est lié à la famille Standish de Standish Hall dans le Lancashire, qui a plusieurs ramifications dans différentes parties de l'Angleterre.
 Standish a été très impressionné par la déforestation rapide du pays et, relativement tôt dans la vie, consacre quatre ans à visiter diverses parties de la Grande-Bretagne en vue de s'assurer de l'état général de l'agriculture. En 1611, il publie à Londres un in-quarto ‘The Commons Complaint’, imprimé par William Stansby, préfacé par une licence de Jacques Ier, (datée du 1er août 1611), qui est également insérée avant ses œuvres ultérieures. Standish fait référence à « deux griefs particuliers » - la « destruction générale et le gaspillage de bois » et « l'extrême pénurie de vivres » - auxquels il propose de remédier en plantant des forêts et des arbres fruitiers, « par un élevage extraordinaire de volaille » et de victuailles, et en « détruisant toutes sortes de vermine ».
